--- a/EXCEL_TRABAJADO/2023-1cl.xlsx
+++ b/EXCEL_TRABAJADO/2023-1cl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E220693F-01D1-409C-9D0E-5BEDA798CDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E09339F-55E4-4DE0-9446-F76EC8939522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="230">
   <si>
     <t>ASIGNATURA</t>
   </si>
@@ -669,6 +669,51 @@
   </si>
   <si>
     <t>PARIONA VILLAVERDE CONSTANTINO</t>
+  </si>
+  <si>
+    <t>AG63 - 583 - PROPAGACIÓN DE PLANTAS - 3253</t>
+  </si>
+  <si>
+    <t>AG64 - 584 - ENTOMOLOGÍA GENERAL - 3254</t>
+  </si>
+  <si>
+    <t>AG65 - 585 - TOPOGRAFÍA - 3255</t>
+  </si>
+  <si>
+    <t>EG20 - 586 - PENSAMIENTO POLÍTICO CONTEMPORÁNEO - 3256</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MATOS LIZANA JULIO CESAR</t>
+  </si>
+  <si>
+    <t>CUELLAR FERNANDEZ JOSÉ MARTÍN</t>
+  </si>
+  <si>
+    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=3253</t>
+  </si>
+  <si>
+    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=3254</t>
+  </si>
+  <si>
+    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=3255</t>
+  </si>
+  <si>
+    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=3256</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>AG76 - 592 - FITOPATOLOGÍA GENERAL - 3259</t>
+  </si>
+  <si>
+    <t>ORELLANA OZHO CARLOS MANUEL</t>
+  </si>
+  <si>
+    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_cl=3259</t>
   </si>
 </sst>
 </file>
@@ -699,18 +744,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -750,7 +789,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -764,10 +803,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1107,11 +1144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,46 +1221,46 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="9">
-        <v>5</v>
-      </c>
-      <c r="J2" s="9">
-        <v>16</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="H2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="6">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <v>0.34375</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="8">
         <v>0.46875</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="9" t="s">
         <v>205</v>
       </c>
       <c r="P2" t="str">
@@ -1232,46 +1269,46 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" s="9">
-        <v>5</v>
-      </c>
-      <c r="J3" s="9">
-        <v>16</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="H3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="6">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6">
+        <v>16</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="8">
         <v>0.6875</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="9" t="s">
         <v>205</v>
       </c>
       <c r="P3" t="str">
@@ -1280,478 +1317,478 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="H4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="6">
+        <v>11</v>
+      </c>
+      <c r="J4" s="6">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.53125</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="6">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6">
+        <v>16</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.59375</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="6">
         <v>5</v>
       </c>
-      <c r="J4" s="9">
-        <v>16</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="J6" s="6">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="8">
         <v>0.375</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M6" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6">
+        <v>16</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.59375</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="6">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6">
+        <v>16</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.34375</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="6">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="M10" s="8">
         <v>0.53125</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="0"/>
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="N10" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>16</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.71875</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I5" s="9">
-        <v>5</v>
-      </c>
-      <c r="J5" s="9">
-        <v>16</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0.59375</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="0"/>
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="F12" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" s="6">
+        <v>11</v>
+      </c>
+      <c r="J12" s="6">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.34375</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="9">
-        <v>5</v>
-      </c>
-      <c r="J6" s="9">
-        <v>16</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="M6" s="11">
-        <v>0.46875</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="0"/>
-        <v>3171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9">
-        <v>16</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0.59375</v>
-      </c>
-      <c r="M7" s="11">
-        <v>0.6875</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="0"/>
-        <v>3177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="9">
-        <v>5</v>
-      </c>
-      <c r="J8" s="9">
-        <v>16</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0.34375</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0.46875</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="0"/>
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I9" s="9">
-        <v>5</v>
-      </c>
-      <c r="J9" s="9">
-        <v>16</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="L9" s="11">
+      <c r="F13" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="6">
+        <v>11</v>
+      </c>
+      <c r="J13" s="6">
+        <v>16</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M9" s="11">
-        <v>0.6875</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="0"/>
-        <v>3181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I10" s="9">
-        <v>5</v>
-      </c>
-      <c r="J10" s="9">
-        <v>16</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0.4375</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0.53125</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="0"/>
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I11" s="9">
-        <v>5</v>
-      </c>
-      <c r="J11" s="9">
-        <v>16</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="M11" s="11">
+      <c r="M13" s="8">
         <v>0.71875</v>
       </c>
-      <c r="N11" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="0"/>
-        <v>3179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I12" s="9">
-        <v>5</v>
-      </c>
-      <c r="J12" s="9">
-        <v>16</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0.34375</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="0"/>
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I13" s="9">
-        <v>5</v>
-      </c>
-      <c r="J13" s="9">
-        <v>16</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0.71875</v>
-      </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="9" t="s">
         <v>205</v>
       </c>
       <c r="P13" t="str">
@@ -1781,11 +1818,11 @@
       <c r="G14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J14">
         <v>16</v>
@@ -1829,11 +1866,11 @@
       <c r="G15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J15">
         <v>16</v>
@@ -1877,11 +1914,11 @@
       <c r="G16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J16">
         <v>16</v>
@@ -1925,11 +1962,11 @@
       <c r="G17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -1973,11 +2010,11 @@
       <c r="G18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J18">
         <v>16</v>
@@ -2021,11 +2058,11 @@
       <c r="G19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J19">
         <v>16</v>
@@ -2069,7 +2106,7 @@
       <c r="G20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I20">
@@ -2117,7 +2154,7 @@
       <c r="G21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I21">
@@ -2165,7 +2202,7 @@
       <c r="G22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I22">
@@ -2213,7 +2250,7 @@
       <c r="G23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I23">
@@ -2256,12 +2293,12 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I24">
@@ -2274,10 +2311,10 @@
         <v>206</v>
       </c>
       <c r="L24" s="3">
-        <v>0.34375</v>
+        <v>0.375</v>
       </c>
       <c r="M24" s="3">
-        <v>0.5</v>
+        <v>0.53125</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>205</v>
@@ -2309,14 +2346,14 @@
       <c r="G25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K25" t="s">
         <v>206</v>
@@ -2336,776 +2373,784 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="H26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" s="6">
         <v>5</v>
       </c>
-      <c r="J26" s="9">
-        <v>16</v>
-      </c>
-      <c r="K26" s="9" t="s">
+      <c r="J26" s="6">
+        <v>16</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="8">
         <v>0.34375</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="8">
         <v>0.5</v>
       </c>
-      <c r="N26" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O26" s="9"/>
+      <c r="N26" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" s="6"/>
       <c r="P26" t="str">
         <f t="shared" si="0"/>
         <v>3220</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I27" s="9">
+      <c r="H27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" s="6">
         <v>5</v>
       </c>
-      <c r="J27" s="9">
-        <v>16</v>
-      </c>
-      <c r="K27" s="9" t="s">
+      <c r="J27" s="6">
+        <v>16</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="8">
         <v>0.71875</v>
       </c>
-      <c r="N27" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O27" s="9"/>
+      <c r="N27" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O27" s="6"/>
       <c r="P27" t="str">
         <f t="shared" si="0"/>
         <v>3227</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I28" s="9">
+      <c r="H28" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" s="6">
         <v>5</v>
       </c>
-      <c r="J28" s="9">
-        <v>16</v>
-      </c>
-      <c r="K28" s="9" t="s">
+      <c r="J28" s="6">
+        <v>16</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="8">
         <v>0.34375</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="8">
         <v>0.4375</v>
       </c>
-      <c r="N28" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O28" s="9"/>
+      <c r="N28" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" s="6"/>
       <c r="P28" t="str">
         <f t="shared" si="0"/>
         <v>3224</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="H29" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" s="6">
         <v>5</v>
       </c>
-      <c r="J29" s="9">
-        <v>16</v>
-      </c>
-      <c r="K29" s="9" t="s">
+      <c r="J29" s="6">
+        <v>16</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="8">
         <v>0.65625</v>
       </c>
-      <c r="N29" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O29" s="9"/>
+      <c r="N29" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O29" s="6"/>
       <c r="P29" t="str">
         <f t="shared" si="0"/>
         <v>3231</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="H30" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" s="6">
         <v>5</v>
       </c>
-      <c r="J30" s="9">
-        <v>16</v>
-      </c>
-      <c r="K30" s="9" t="s">
+      <c r="J30" s="6">
+        <v>16</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="8">
         <v>0.34375</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="8">
         <v>0.5</v>
       </c>
-      <c r="N30" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O30" s="9"/>
+      <c r="N30" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O30" s="6"/>
       <c r="P30" t="str">
         <f t="shared" si="0"/>
         <v>3225</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="H31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I31" s="6">
         <v>5</v>
       </c>
-      <c r="J31" s="9">
-        <v>16</v>
-      </c>
-      <c r="K31" s="9" t="s">
+      <c r="J31" s="6">
+        <v>16</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="8">
         <v>0.71875</v>
       </c>
-      <c r="N31" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O31" s="9"/>
+      <c r="N31" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O31" s="6"/>
       <c r="P31" t="str">
         <f t="shared" si="0"/>
         <v>3232</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I32" s="9">
+      <c r="H32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I32" s="6">
         <v>5</v>
       </c>
-      <c r="J32" s="9">
-        <v>16</v>
-      </c>
-      <c r="K32" s="9" t="s">
+      <c r="J32" s="6">
+        <v>16</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="8">
         <v>0.34375</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="8">
         <v>0.5</v>
       </c>
-      <c r="N32" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O32" s="6"/>
       <c r="P32" t="str">
         <f t="shared" si="0"/>
         <v>3221</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="H33" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" s="6">
         <v>5</v>
       </c>
-      <c r="J33" s="9">
-        <v>16</v>
-      </c>
-      <c r="K33" s="9" t="s">
+      <c r="J33" s="6">
+        <v>16</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="8">
         <v>0.71875</v>
       </c>
-      <c r="N33" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O33" s="9"/>
+      <c r="N33" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O33" s="6"/>
       <c r="P33" t="str">
         <f t="shared" si="0"/>
         <v>3228</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I34" s="9">
+      <c r="H34" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I34" s="6">
         <v>5</v>
       </c>
-      <c r="J34" s="9">
-        <v>16</v>
-      </c>
-      <c r="K34" s="9" t="s">
+      <c r="J34" s="6">
+        <v>16</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="8">
         <v>0.46875</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="8">
         <v>0.5625</v>
       </c>
-      <c r="N34" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O34" s="9"/>
+      <c r="N34" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" t="str">
+        <f t="shared" si="0"/>
+        <v>3222</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I35" s="9">
+      <c r="H35" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I35" s="6">
         <v>5</v>
       </c>
-      <c r="J35" s="9">
-        <v>16</v>
-      </c>
-      <c r="K35" s="9" t="s">
+      <c r="J35" s="6">
+        <v>16</v>
+      </c>
+      <c r="K35" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="8">
         <v>0.5</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="8">
         <v>0.5625</v>
       </c>
-      <c r="N35" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O35" s="9"/>
+      <c r="N35" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O35" s="6"/>
       <c r="P35" t="str">
         <f t="shared" si="0"/>
         <v>3222</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I36" s="9">
+      <c r="H36" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I36" s="6">
         <v>5</v>
       </c>
-      <c r="J36" s="9">
-        <v>16</v>
-      </c>
-      <c r="K36" s="9" t="s">
+      <c r="J36" s="6">
+        <v>16</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="8">
         <v>0.6875</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="8">
         <v>0.78125</v>
       </c>
-      <c r="N36" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O36" s="9"/>
+      <c r="N36" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O36" s="6"/>
+      <c r="P36" t="str">
+        <f t="shared" si="0"/>
+        <v>3229</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="H37" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="6">
         <v>5</v>
       </c>
-      <c r="J37" s="9">
-        <v>16</v>
-      </c>
-      <c r="K37" s="9" t="s">
+      <c r="J37" s="6">
+        <v>16</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="8">
         <v>0.71875</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="8">
         <v>0.78125</v>
       </c>
-      <c r="N37" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O37" s="9"/>
+      <c r="N37" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O37" s="6"/>
       <c r="P37" t="str">
         <f t="shared" si="0"/>
         <v>3229</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I38" s="9">
+      <c r="H38" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="6">
         <v>5</v>
       </c>
-      <c r="J38" s="9">
-        <v>16</v>
-      </c>
-      <c r="K38" s="9" t="s">
+      <c r="J38" s="6">
+        <v>16</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="8">
         <v>0.375</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="8">
         <v>0.53125</v>
       </c>
-      <c r="N38" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O38" s="9"/>
+      <c r="N38" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O38" s="6"/>
       <c r="P38" t="str">
         <f t="shared" si="0"/>
         <v>3223</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I39" s="9">
+      <c r="H39" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I39" s="6">
         <v>5</v>
       </c>
-      <c r="J39" s="9">
-        <v>16</v>
-      </c>
-      <c r="K39" s="9" t="s">
+      <c r="J39" s="6">
+        <v>16</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="8">
         <v>0.59375</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="8">
         <v>0.75</v>
       </c>
-      <c r="N39" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O39" s="9"/>
+      <c r="N39" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O39" s="6"/>
       <c r="P39" t="str">
         <f t="shared" si="0"/>
         <v>3230</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I40" s="9">
+      <c r="H40" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I40" s="6">
         <v>5</v>
       </c>
-      <c r="J40" s="9">
-        <v>16</v>
-      </c>
-      <c r="K40" s="9" t="s">
+      <c r="J40" s="6">
+        <v>16</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="8">
         <v>0.34375</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="8">
         <v>0.46875</v>
       </c>
-      <c r="N40" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O40" s="9"/>
+      <c r="N40" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O40" s="6"/>
       <c r="P40" t="str">
         <f t="shared" si="0"/>
         <v>3226</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I41" s="9">
+      <c r="H41" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I41" s="6">
         <v>5</v>
       </c>
-      <c r="J41" s="9">
-        <v>16</v>
-      </c>
-      <c r="K41" s="9" t="s">
+      <c r="J41" s="6">
+        <v>16</v>
+      </c>
+      <c r="K41" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="8">
         <v>0.6875</v>
       </c>
-      <c r="N41" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O41" s="9"/>
+      <c r="N41" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O41" s="6"/>
       <c r="P41" t="str">
         <f t="shared" si="0"/>
         <v>3233</v>
@@ -3133,7 +3178,7 @@
       <c r="G42" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I42">
@@ -3181,7 +3226,7 @@
       <c r="G43" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I43">
@@ -3229,7 +3274,7 @@
       <c r="G44" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I44">
@@ -3277,7 +3322,7 @@
       <c r="G45" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I45">
@@ -3325,7 +3370,7 @@
       <c r="G46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I46">
@@ -3373,7 +3418,7 @@
       <c r="G47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I47">
@@ -3421,7 +3466,7 @@
       <c r="G48" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I48">
@@ -3431,7 +3476,7 @@
         <v>16</v>
       </c>
       <c r="K48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L48" s="3">
         <v>0.375</v>
@@ -3469,7 +3514,7 @@
       <c r="G49" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I49">
@@ -3517,7 +3562,7 @@
       <c r="G50" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I50">
@@ -3537,6 +3582,10 @@
       </c>
       <c r="N50" s="5" t="s">
         <v>205</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="0"/>
+        <v>3199</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -3561,7 +3610,7 @@
       <c r="G51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I51">
@@ -3587,50 +3636,50 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
         <v>94</v>
       </c>
       <c r="F52" t="s">
         <v>213</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H52" t="s">
-        <v>183</v>
-      </c>
-      <c r="I52" s="6">
-        <v>2</v>
-      </c>
-      <c r="J52" s="6">
-        <v>4</v>
-      </c>
-      <c r="K52" s="6" t="s">
+      <c r="H52" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="3">
         <v>0.4375</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="3">
         <v>0.5625</v>
       </c>
       <c r="N52" t="s">
         <v>205</v>
       </c>
-      <c r="P52" s="6" t="str">
+      <c r="P52" t="str">
         <f t="shared" si="0"/>
         <v>3194</v>
       </c>
@@ -3657,7 +3706,7 @@
       <c r="G53" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I53">
@@ -3705,7 +3754,7 @@
       <c r="G54" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I54">
@@ -3753,7 +3802,7 @@
       <c r="G55" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I55">
@@ -3780,290 +3829,294 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I56" s="9">
+      <c r="H56" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I56" s="6">
         <v>5</v>
       </c>
-      <c r="J56" s="9">
-        <v>16</v>
-      </c>
-      <c r="K56" s="9" t="s">
+      <c r="J56" s="6">
+        <v>16</v>
+      </c>
+      <c r="K56" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M56" s="11">
+      <c r="M56" s="8">
         <v>0.71875</v>
       </c>
-      <c r="N56" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O56" s="9"/>
+      <c r="N56" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O56" s="6"/>
       <c r="P56" t="str">
         <f t="shared" si="0"/>
         <v>3209</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I57" s="9">
+      <c r="H57" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I57" s="6">
         <v>5</v>
       </c>
-      <c r="J57" s="9">
-        <v>16</v>
-      </c>
-      <c r="K57" s="9" t="s">
+      <c r="J57" s="6">
+        <v>16</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="8">
         <v>0.65625</v>
       </c>
-      <c r="N57" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O57" s="9"/>
+      <c r="N57" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O57" s="6"/>
+      <c r="P57" t="str">
+        <f t="shared" si="0"/>
+        <v>3210</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I58" s="9">
+      <c r="H58" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I58" s="6">
         <v>5</v>
       </c>
-      <c r="J58" s="9">
-        <v>16</v>
-      </c>
-      <c r="K58" s="9" t="s">
+      <c r="J58" s="6">
+        <v>16</v>
+      </c>
+      <c r="K58" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M58" s="8">
         <v>0.65625</v>
       </c>
-      <c r="N58" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O58" s="9"/>
+      <c r="N58" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O58" s="6"/>
       <c r="P58" t="str">
         <f t="shared" si="0"/>
         <v>3211</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I59" s="9">
+      <c r="H59" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" s="6">
         <v>5</v>
       </c>
-      <c r="J59" s="9">
-        <v>16</v>
-      </c>
-      <c r="K59" s="9" t="s">
+      <c r="J59" s="6">
+        <v>16</v>
+      </c>
+      <c r="K59" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M59" s="8">
         <v>0.65625</v>
       </c>
-      <c r="N59" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O59" s="9"/>
+      <c r="N59" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O59" s="6"/>
       <c r="P59" t="str">
         <f t="shared" si="0"/>
         <v>3212</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I60" s="9">
+      <c r="H60" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I60" s="6">
         <v>5</v>
       </c>
-      <c r="J60" s="9">
-        <v>16</v>
-      </c>
-      <c r="K60" s="9" t="s">
+      <c r="J60" s="6">
+        <v>16</v>
+      </c>
+      <c r="K60" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="8">
         <v>0.59375</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M60" s="8">
         <v>0.71875</v>
       </c>
-      <c r="N60" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O60" s="9"/>
+      <c r="N60" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O60" s="6"/>
       <c r="P60" t="str">
         <f t="shared" si="0"/>
         <v>3213</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H61" t="s">
-        <v>183</v>
-      </c>
-      <c r="I61" s="9">
-        <v>1</v>
-      </c>
-      <c r="J61" s="9">
-        <v>4</v>
-      </c>
-      <c r="K61" s="9" t="s">
+      <c r="H61" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I61" s="6">
+        <v>5</v>
+      </c>
+      <c r="J61" s="6">
+        <v>16</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="8">
         <v>0.5625</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M61" s="8">
         <v>0.6875</v>
       </c>
       <c r="N61" t="s">
         <v>205</v>
       </c>
-      <c r="O61" s="9"/>
+      <c r="O61" s="6"/>
       <c r="P61" t="str">
         <f t="shared" si="0"/>
         <v>3208</v>
@@ -4091,7 +4144,7 @@
       <c r="G62" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I62">
@@ -4139,7 +4192,7 @@
       <c r="G63" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I63">
@@ -4187,14 +4240,14 @@
       <c r="G64" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J64">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K64" t="s">
         <v>208</v>
@@ -4235,7 +4288,7 @@
       <c r="G65" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I65">
@@ -4283,7 +4336,7 @@
       <c r="G66" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I66">
@@ -4331,7 +4384,7 @@
       <c r="G67" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I67">
@@ -4355,6 +4408,252 @@
       <c r="P67" t="str">
         <f t="shared" ref="P67" si="1">MID(G67,LEN(G67)-3,4)</f>
         <v>3219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" t="s">
+        <v>222</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+      <c r="K68" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>220</v>
+      </c>
+      <c r="G69" t="s">
+        <v>223</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>16</v>
+      </c>
+      <c r="K69" t="s">
+        <v>206</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>220</v>
+      </c>
+      <c r="G70" t="s">
+        <v>224</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>16</v>
+      </c>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G71" t="s">
+        <v>225</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I71">
+        <v>6</v>
+      </c>
+      <c r="J71">
+        <v>16</v>
+      </c>
+      <c r="K71" t="s">
+        <v>207</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>228</v>
+      </c>
+      <c r="G72" t="s">
+        <v>229</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>15</v>
+      </c>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>228</v>
+      </c>
+      <c r="G73" t="s">
+        <v>229</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I73">
+        <v>16</v>
+      </c>
+      <c r="J73">
+        <v>16</v>
+      </c>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0.8125</v>
       </c>
     </row>
   </sheetData>
